--- a/Misc/הוצאות_והשקעות.xlsx
+++ b/Misc/הוצאות_והשקעות.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilon.eilstein\Desktop\Eilon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilon.eilstein\Desktop\Eilon\GitHub\My-Projects\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="חישוב תשואה ורווח" sheetId="1" r:id="rId1"/>
+    <sheet name="הוצאות אמיתיות" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="הפקדות_במהלך_החודש">'הוצאות אמיתיות'!$F$3:$F$32</definedName>
+    <definedName name="סכום_בסוף_החודש">'הוצאות אמיתיות'!$E$3:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -158,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>סכום התחלתי:</t>
   </si>
@@ -228,15 +233,48 @@
   <si>
     <t>לפני ניכוי מיסים</t>
   </si>
+  <si>
+    <t>חודש</t>
+  </si>
+  <si>
+    <t>סכום בתחילת החודש</t>
+  </si>
+  <si>
+    <t>סכום בסוף החודש</t>
+  </si>
+  <si>
+    <t>הפקדות במהלך החודש</t>
+  </si>
+  <si>
+    <t>סידורי</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>רווח חודשי</t>
+  </si>
+  <si>
+    <t>% רווח חודשי</t>
+  </si>
+  <si>
+    <t>סך רווחים</t>
+  </si>
+  <si>
+    <t>סך 
+הוצאות</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="171" formatCode="&quot;₪&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -297,8 +335,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -582,12 +639,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,6 +789,9 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,15 +803,97 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="פלט" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -713,64 +952,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2768.9632500000007</c:v>
+                  <c:v>3903.0230999999949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3400.5575506048517</c:v>
+                  <c:v>6155.9451780253148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1104.7411972396585</c:v>
+                  <c:v>3923.1126341087584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>967.75387198356111</c:v>
+                  <c:v>2803.2289824028594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-681.11193112295587</c:v>
+                  <c:v>7537.9932902381224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3125.8659435376067</c:v>
+                  <c:v>10735.635466178846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4837.0338652960854</c:v>
+                  <c:v>21105.565685037553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3739.1441441529678</c:v>
+                  <c:v>26296.318169851482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2826.7803312566612</c:v>
+                  <c:v>40576.04473223583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6705.051788006378</c:v>
+                  <c:v>42126.341031989024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20421.377463410761</c:v>
+                  <c:v>55898.903654235146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32069.220818607741</c:v>
+                  <c:v>52312.794211033877</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44760.257723436123</c:v>
+                  <c:v>44161.459389693606</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59225.890450343286</c:v>
+                  <c:v>53320.647062675547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77830.746871092197</c:v>
+                  <c:v>51830.236299513708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74631.311545670265</c:v>
+                  <c:v>44776.421023363131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71861.540734627619</c:v>
+                  <c:v>41664.036551558267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82974.932169873384</c:v>
+                  <c:v>61068.803225008829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95508.293951197018</c:v>
+                  <c:v>84933.470526997131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98814.327028859145</c:v>
+                  <c:v>88701.34325180485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,64 +1080,64 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.324929326923078E-2</c:v>
+                  <c:v>7.505813653846144E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3133711728200805E-2</c:v>
+                  <c:v>9.6186643406645539E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4536068384732349E-2</c:v>
+                  <c:v>5.16199030803784E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0997203090722286E-2</c:v>
+                  <c:v>3.185487480003249E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.8111193112295586E-3</c:v>
+                  <c:v>7.5379932902381222E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7909517353014345E-2</c:v>
+                  <c:v>9.5853888090882564E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.9008337623355531E-2</c:v>
+                  <c:v>0.17020617487933509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.7493706942301233E-2</c:v>
+                  <c:v>0.19335528066067267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.909986710308555E-2</c:v>
+                  <c:v>0.27416246440699887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.190657367503986E-2</c:v>
+                  <c:v>0.26328963144993139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11872893874076024</c:v>
+                  <c:v>0.32499362589671599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17428924357938991</c:v>
+                  <c:v>0.28430866419040152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22836866185426594</c:v>
+                  <c:v>0.22531356831476329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2847398579343427</c:v>
+                  <c:v>0.25634926472440167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35377612214132814</c:v>
+                  <c:v>0.23559198317960778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3216866876968546</c:v>
+                  <c:v>0.19300181475587558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29451451120749023</c:v>
+                  <c:v>0.17075424816212403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32412082878856791</c:v>
+                  <c:v>0.23855001259769074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.35637423116118289</c:v>
+                  <c:v>0.31691593480222813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35290831081735408</c:v>
+                  <c:v>0.31679051161358873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1578,16 +1817,16 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="30" t="s">
         <v>19</v>
@@ -1632,7 +1871,7 @@
       </c>
       <c r="M5" s="28">
         <f ca="1">AVERAGE(L6:L25)</f>
-        <v>1.0326</v>
+        <v>1.0381499999999999</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1655,7 +1894,7 @@
       </c>
       <c r="F6" s="12">
         <f ca="1">(D6*L6 + 0.5*(1+L6)*E6) * (1-$L$2)</f>
-        <v>55691.951000000001</v>
+        <v>57204.030799999993</v>
       </c>
       <c r="G6" s="12">
         <f>D2+E6</f>
@@ -1663,23 +1902,23 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H15" ca="1" si="1">F6-G6</f>
-        <v>3691.9510000000009</v>
+        <v>5204.0307999999932</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" ref="I6:I15" ca="1" si="2">H6/G6</f>
-        <v>7.0999057692307715E-2</v>
+        <v>0.10007751538461525</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" ref="J6:J25" ca="1" si="3">((F6*(1))-G6) - (H6*$N$2)</f>
-        <v>2768.9632500000007</v>
+        <f t="shared" ref="J6" ca="1" si="3">((F6*(1))-G6) - (H6*$N$2)</f>
+        <v>3903.0230999999949</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" ref="K6:K15" ca="1" si="4">J6/G6</f>
-        <v>5.324929326923078E-2</v>
-      </c>
-      <c r="L6" s="38">
+        <v>7.505813653846144E-2</v>
+      </c>
+      <c r="L6" s="33">
         <f ca="1">1+(RANDBETWEEN($P$2*1000*$F$2,1000*$R$2*$F$2)/1000)</f>
-        <v>1.085</v>
+        <v>1.1179999999999999</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1695,7 +1934,7 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D15" ca="1" si="5">F6</f>
-        <v>55691.951000000001</v>
+        <v>57204.030799999993</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" si="0"/>
@@ -1703,7 +1942,7 @@
       </c>
       <c r="F7" s="18">
         <f t="shared" ref="F7:F25" ca="1" si="6">(D7*L7 + 0.5*(1+L7)*E7) * (1-$L$2)</f>
-        <v>68534.076734139802</v>
+        <v>72207.926904033753</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" ref="G7:G15" si="7">G6+E7</f>
@@ -1711,23 +1950,23 @@
       </c>
       <c r="H7" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4534.0767341398023</v>
+        <v>8207.9269040337531</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0844948970934407E-2</v>
+        <v>0.12824885787552739</v>
       </c>
       <c r="J7" s="20">
         <f ca="1">((F7*(1))-G7) - (H7*$N$2)</f>
-        <v>3400.5575506048517</v>
+        <v>6155.9451780253148</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3133711728200805E-2</v>
-      </c>
-      <c r="L7" s="39">
+        <v>9.6186643406645539E-2</v>
+      </c>
+      <c r="L7" s="34">
         <f t="shared" ref="L7:L25" ca="1" si="8">1+(RANDBETWEEN($P$2*1000*$F$2,1000*$R$2*$F$2)/1000)</f>
-        <v>1.018</v>
+        <v>1.052</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1743,7 +1982,7 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>68534.076734139802</v>
+        <v>72207.926904033753</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
@@ -1751,7 +1990,7 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>77472.988262986211</v>
+        <v>81230.816845478344</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="7"/>
@@ -1759,23 +1998,23 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>1472.9882629862113</v>
+        <v>5230.8168454783445</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9381424512976465E-2</v>
+        <v>6.8826537440504529E-2</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J25" ca="1" si="9">((F8*(1))-G8) - (H8*$N$2)</f>
-        <v>1104.7411972396585</v>
+        <v>3923.1126341087584</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4536068384732349E-2</v>
-      </c>
-      <c r="L8" s="38">
+        <v>5.16199030803784E-2</v>
+      </c>
+      <c r="L8" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96299999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1791,7 +2030,7 @@
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>77472.988262986211</v>
+        <v>81230.816845478344</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="0"/>
@@ -1799,7 +2038,7 @@
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>89290.338495978081</v>
+        <v>91737.638643203813</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="7"/>
@@ -1807,23 +2046,23 @@
       </c>
       <c r="H9" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1290.3384959780815</v>
+        <v>3737.6386432038125</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4662937454296381E-2</v>
+        <v>4.2473166400043325E-2</v>
       </c>
       <c r="J9" s="20">
         <f ca="1">((F9*(1))-G9) - (H9*$N$2)</f>
-        <v>967.75387198356111</v>
+        <v>2803.2289824028594</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0997203090722286E-2</v>
-      </c>
-      <c r="L9" s="39">
+        <v>3.185487480003249E-2</v>
+      </c>
+      <c r="L9" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.002</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1839,7 +2078,7 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>89290.338495978081</v>
+        <v>91737.638643203813</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
@@ -1847,7 +2086,7 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>99091.850758502726</v>
+        <v>110050.6577203175</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="7"/>
@@ -1855,23 +2094,23 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-908.14924149727449</v>
+        <v>10050.657720317497</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.0814924149727454E-3</v>
+        <v>0.10050657720317496</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>-681.11193112295587</v>
+        <v>7537.9932902381224</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.8111193112295586E-3</v>
-      </c>
-      <c r="L10" s="38">
+        <v>7.5379932902381222E-2</v>
+      </c>
+      <c r="L10" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98099999999999998</v>
+        <v>1.069</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1887,7 +2126,7 @@
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>99091.850758502726</v>
+        <v>110050.6577203175</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
@@ -1895,7 +2134,7 @@
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>107832.17874194986</v>
+        <v>126314.1806215718</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="7"/>
@@ -1903,23 +2142,23 @@
       </c>
       <c r="H11" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4167.8212580501422</v>
+        <v>14314.180621571795</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.7212689804019129E-2</v>
+        <v>0.12780518412117675</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-3125.8659435376067</v>
+        <v>10735.635466178846</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.7909517353014345E-2</v>
-      </c>
-      <c r="L11" s="39">
+        <v>9.5853888090882564E-2</v>
+      </c>
+      <c r="L11" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97299999999999998</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1935,7 +2174,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>107832.17874194986</v>
+        <v>126314.1806215718</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
@@ -1943,7 +2182,7 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>117550.62151293855</v>
+        <v>152140.75424671674</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="7"/>
@@ -1951,23 +2190,23 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-6449.3784870614472</v>
+        <v>28140.754246716737</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.2011116831140701E-2</v>
+        <v>0.22694156650578012</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>-4837.0338652960854</v>
+        <v>21105.565685037553</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.9008337623355531E-2</v>
-      </c>
-      <c r="L12" s="38">
+        <v>0.17020617487933509</v>
+      </c>
+      <c r="L12" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98399999999999999</v>
+        <v>1.109</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1983,7 +2222,7 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>117550.62151293855</v>
+        <v>152140.75424671674</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="0"/>
@@ -1991,7 +2230,7 @@
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>131014.47447446271</v>
+        <v>171061.75755980198</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="7"/>
@@ -1999,23 +2238,23 @@
       </c>
       <c r="H13" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4985.5255255372904</v>
+        <v>35061.757559801976</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.6658275923068313E-2</v>
+        <v>0.2578070408808969</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-3739.1441441529678</v>
+        <v>26296.318169851482</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.7493706942301233E-2</v>
-      </c>
-      <c r="L13" s="39">
+        <v>0.19335528066067267</v>
+      </c>
+      <c r="L13" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.016</v>
+        <v>1.048</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2031,7 +2270,7 @@
       </c>
       <c r="D14" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>131014.47447446271</v>
+        <v>171061.75755980198</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
@@ -2039,7 +2278,7 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>144230.95955832445</v>
+        <v>202101.39297631444</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="7"/>
@@ -2047,23 +2286,23 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3769.0404416755482</v>
+        <v>54101.392976314441</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.5466489470780732E-2</v>
+        <v>0.36554995254266515</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>-2826.7803312566612</v>
+        <v>40576.04473223583</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.909986710308555E-2</v>
-      </c>
-      <c r="L14" s="38">
+        <v>0.27416246440699887</v>
+      </c>
+      <c r="L14" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0129999999999999</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2079,7 +2318,7 @@
       </c>
       <c r="D15" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>144230.95955832445</v>
+        <v>202101.39297631444</v>
       </c>
       <c r="E15" s="24">
         <f t="shared" si="0"/>
@@ -2087,7 +2326,7 @@
       </c>
       <c r="F15" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>168940.06905067517</v>
+        <v>216168.4547093187</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="7"/>
@@ -2095,23 +2334,23 @@
       </c>
       <c r="H15" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>8940.0690506751707</v>
+        <v>56168.454709318699</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.587543156671982E-2</v>
+        <v>0.35105284193324188</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>6705.051788006378</v>
+        <v>42126.341031989024</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>4.190657367503986E-2</v>
-      </c>
-      <c r="L15" s="40">
+        <v>0.26328963144993139</v>
+      </c>
+      <c r="L15" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.089</v>
+        <v>1.014</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2127,7 +2366,7 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" ref="D16:D19" ca="1" si="10">F15</f>
-        <v>168940.06905067517</v>
+        <v>216168.4547093187</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
@@ -2135,7 +2374,7 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>199228.50328454768</v>
+        <v>246531.87153898019</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G19" si="11">G15+E16</f>
@@ -2143,23 +2382,23 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16:H19" ca="1" si="12">F16-G16</f>
-        <v>27228.503284547682</v>
+        <v>74531.871538980195</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" ref="I16:I19" ca="1" si="13">H16/G16</f>
-        <v>0.15830525165434697</v>
+        <v>0.43332483452895459</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>20421.377463410761</v>
+        <v>55898.903654235146</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" ref="K16:K19" ca="1" si="14">J16/G16</f>
-        <v>0.11872893874076024</v>
-      </c>
-      <c r="L16" s="38">
+        <v>0.32499362589671599</v>
+      </c>
+      <c r="L16" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.109</v>
+        <v>1.087</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2175,7 +2414,7 @@
       </c>
       <c r="D17" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>199228.50328454768</v>
+        <v>246531.87153898019</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
@@ -2183,7 +2422,7 @@
       </c>
       <c r="F17" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>226758.96109147699</v>
+        <v>253750.3922813785</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="11"/>
@@ -2191,23 +2430,23 @@
       </c>
       <c r="H17" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>42758.961091476987</v>
+        <v>69750.392281378503</v>
       </c>
       <c r="I17" s="25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.23238565810585318</v>
+        <v>0.37907821892053534</v>
       </c>
       <c r="J17" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>32069.220818607741</v>
+        <v>52312.794211033877</v>
       </c>
       <c r="K17" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.17428924357938991</v>
-      </c>
-      <c r="L17" s="40">
+        <v>0.28430866419040152</v>
+      </c>
+      <c r="L17" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.08</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2223,7 +2462,7 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ca="1" si="10"/>
-        <v>226758.96109147699</v>
+        <v>253750.3922813785</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
@@ -2231,7 +2470,7 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>255680.34363124816</v>
+        <v>254881.94585292481</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="11"/>
@@ -2239,23 +2478,23 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>59680.343631248164</v>
+        <v>58881.945852924808</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30449154913902127</v>
+        <v>0.30041809108635104</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>44760.257723436123</v>
+        <v>44161.459389693606</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22836866185426594</v>
-      </c>
-      <c r="L18" s="38">
+        <v>0.22531356831476329</v>
+      </c>
+      <c r="L18" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.077</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2271,7 +2510,7 @@
       </c>
       <c r="D19" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>255680.34363124816</v>
+        <v>254881.94585292481</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" si="0"/>
@@ -2279,7 +2518,7 @@
       </c>
       <c r="F19" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>286967.85393379105</v>
+        <v>279094.1960835674</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="11"/>
@@ -2287,23 +2526,23 @@
       </c>
       <c r="H19" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>78967.853933791048</v>
+        <v>71094.196083567396</v>
       </c>
       <c r="I19" s="25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37965314391245697</v>
+        <v>0.34179901963253556</v>
       </c>
       <c r="J19" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>59225.890450343286</v>
+        <v>53320.647062675547</v>
       </c>
       <c r="K19" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2847398579343427</v>
-      </c>
-      <c r="L19" s="40">
+        <v>0.25634926472440167</v>
+      </c>
+      <c r="L19" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0780000000000001</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2319,7 +2558,7 @@
       </c>
       <c r="D20" s="12">
         <f t="shared" ref="D20:D25" ca="1" si="15">F19</f>
-        <v>286967.85393379105</v>
+        <v>279094.1960835674</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="0"/>
@@ -2327,7 +2566,7 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>323774.32916145626</v>
+        <v>289106.98173268494</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" ref="G20:G25" si="16">G19+E20</f>
@@ -2335,23 +2574,23 @@
       </c>
       <c r="H20" s="12">
         <f t="shared" ref="H20:H25" ca="1" si="17">F20-G20</f>
-        <v>103774.32916145626</v>
+        <v>69106.981732684944</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" ref="I20:I25" ca="1" si="18">H20/G20</f>
-        <v>0.47170149618843754</v>
+        <v>0.314122644239477</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>77830.746871092197</v>
+        <v>51830.236299513708</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" ref="K20:K25" ca="1" si="19">J20/G20</f>
-        <v>0.35377612214132814</v>
-      </c>
-      <c r="L20" s="38">
+        <v>0.23559198317960778</v>
+      </c>
+      <c r="L20" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.089</v>
+        <v>0.997</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2367,7 +2606,7 @@
       </c>
       <c r="D21" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>323774.32916145626</v>
+        <v>289106.98173268494</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
@@ -2375,7 +2614,7 @@
       </c>
       <c r="F21" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>331508.41539422702</v>
+        <v>291701.89469781751</v>
       </c>
       <c r="G21" s="24">
         <f t="shared" si="16"/>
@@ -2383,23 +2622,23 @@
       </c>
       <c r="H21" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>99508.41539422702</v>
+        <v>59701.894697817508</v>
       </c>
       <c r="I21" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42891558359580612</v>
+        <v>0.25733575300783407</v>
       </c>
       <c r="J21" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>74631.311545670265</v>
+        <v>44776.421023363131</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.3216866876968546</v>
-      </c>
-      <c r="L21" s="40">
+        <v>0.19300181475587558</v>
+      </c>
+      <c r="L21" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99099999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2415,7 +2654,7 @@
       </c>
       <c r="D22" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>331508.41539422702</v>
+        <v>291701.89469781751</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
@@ -2423,7 +2662,7 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>339815.38764617016</v>
+        <v>299552.04873541102</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="16"/>
@@ -2431,23 +2670,23 @@
       </c>
       <c r="H22" s="12">
         <f t="shared" ca="1" si="17"/>
-        <v>95815.387646170158</v>
+        <v>55552.048735411023</v>
       </c>
       <c r="I22" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>0.39268601494332034</v>
+        <v>0.22767233088283206</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>71861.540734627619</v>
+        <v>41664.036551558267</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>0.29451451120749023</v>
-      </c>
-      <c r="L22" s="38">
+        <v>0.17075424816212403</v>
+      </c>
+      <c r="L22" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2463,7 +2702,7 @@
       </c>
       <c r="D23" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>339815.38764617016</v>
+        <v>299552.04873541102</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
@@ -2471,7 +2710,7 @@
       </c>
       <c r="F23" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>366633.24289316451</v>
+        <v>337425.07096667844</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="16"/>
@@ -2479,23 +2718,23 @@
       </c>
       <c r="H23" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>110633.24289316451</v>
+        <v>81425.070966678439</v>
       </c>
       <c r="I23" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.43216110505142386</v>
+        <v>0.31806668346358763</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>82974.932169873384</v>
+        <v>61068.803225008829</v>
       </c>
       <c r="K23" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.32412082878856791</v>
-      </c>
-      <c r="L23" s="40">
+        <v>0.23855001259769074</v>
+      </c>
+      <c r="L23" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0469999999999999</v>
+        <v>1.089</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2511,7 +2750,7 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>366633.24289316451</v>
+        <v>337425.07096667844</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="0"/>
@@ -2519,7 +2758,7 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>395344.39193492936</v>
+        <v>381244.62736932951</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="16"/>
@@ -2527,23 +2766,23 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="17"/>
-        <v>127344.39193492936</v>
+        <v>113244.62736932951</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>0.47516564154824387</v>
+        <v>0.42255457973630411</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>95508.293951197018</v>
+        <v>84933.470526997131</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>0.35637423116118289</v>
-      </c>
-      <c r="L24" s="38">
+        <v>0.31691593480222813</v>
+      </c>
+      <c r="L24" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0489999999999999</v>
+        <v>1.097</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2559,7 +2798,7 @@
       </c>
       <c r="D25" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>395344.39193492936</v>
+        <v>381244.62736932951</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
@@ -2567,7 +2806,7 @@
       </c>
       <c r="F25" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>411752.43603847886</v>
+        <v>398268.45766907313</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="16"/>
@@ -2575,23 +2814,23 @@
       </c>
       <c r="H25" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>131752.43603847886</v>
+        <v>118268.45766907313</v>
       </c>
       <c r="I25" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.47054441442313877</v>
+        <v>0.42238734881811835</v>
       </c>
       <c r="J25" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>98814.327028859145</v>
+        <v>88701.34325180485</v>
       </c>
       <c r="K25" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.35290831081735408</v>
-      </c>
-      <c r="L25" s="40">
+        <v>0.31679051161358873</v>
+      </c>
+      <c r="L25" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0149999999999999</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3909,4 +4148,668 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L33"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="41"/>
+    <col min="2" max="2" width="8.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="41" customWidth="1"/>
+    <col min="4" max="6" width="21" style="50" customWidth="1"/>
+    <col min="7" max="9" width="16.8984375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="K2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47">
+        <f>DATE((2021), B3, 1)</f>
+        <v>44197</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="K3" s="50">
+        <f>SUM(הפקדות_במהלך_החודש)</f>
+        <v>31000</v>
+      </c>
+      <c r="L3" s="50">
+        <f>MAX(סכום_בסוף_החודש) - K3</f>
+        <v>-9491</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="46">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47">
+        <f t="shared" ref="C4:C32" si="0">DATE((2021), B4, 1)</f>
+        <v>44228</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47">
+        <f t="shared" si="0"/>
+        <v>44256</v>
+      </c>
+      <c r="D5" s="48">
+        <v>0</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="46">
+        <v>4</v>
+      </c>
+      <c r="C6" s="47">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
+      <c r="D6" s="48">
+        <f>E5</f>
+        <v>1000</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="46">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47">
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
+      <c r="D7" s="48">
+        <f>E6</f>
+        <v>1000</v>
+      </c>
+      <c r="E7" s="48">
+        <v>11198</v>
+      </c>
+      <c r="F7" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="46">
+        <v>6</v>
+      </c>
+      <c r="C8" s="47">
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="D8" s="48">
+        <f>E7</f>
+        <v>11198</v>
+      </c>
+      <c r="E8" s="48">
+        <v>21509</v>
+      </c>
+      <c r="F8" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="50">
+        <f>(E8-F7)-D8</f>
+        <v>311</v>
+      </c>
+      <c r="H8" s="56">
+        <f>G8/D8</f>
+        <v>2.7772816574388282E-2</v>
+      </c>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>7</v>
+      </c>
+      <c r="C9" s="47">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="D9" s="48">
+        <f>E8</f>
+        <v>21509</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
+        <v>8</v>
+      </c>
+      <c r="C10" s="47">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
+      <c r="D10" s="48">
+        <f t="shared" ref="D10:D32" si="1">E9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="46">
+        <v>9</v>
+      </c>
+      <c r="C11" s="47">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="D11" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="46">
+        <v>10</v>
+      </c>
+      <c r="C12" s="47">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="46">
+        <v>11</v>
+      </c>
+      <c r="C13" s="47">
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="46">
+        <v>12</v>
+      </c>
+      <c r="C14" s="47">
+        <f t="shared" si="0"/>
+        <v>44531</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="46">
+        <v>13</v>
+      </c>
+      <c r="C15" s="47">
+        <f t="shared" si="0"/>
+        <v>44562</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="46">
+        <v>14</v>
+      </c>
+      <c r="C16" s="47">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="46">
+        <v>15</v>
+      </c>
+      <c r="C17" s="47">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="46">
+        <v>16</v>
+      </c>
+      <c r="C18" s="47">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="D18" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="46">
+        <v>17</v>
+      </c>
+      <c r="C19" s="47">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="46">
+        <v>18</v>
+      </c>
+      <c r="C20" s="47">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="D20" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="46">
+        <v>19</v>
+      </c>
+      <c r="C21" s="47">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="46">
+        <v>20</v>
+      </c>
+      <c r="C22" s="47">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
+      <c r="D22" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="46">
+        <v>21</v>
+      </c>
+      <c r="C23" s="47">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
+      <c r="D23" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="46">
+        <v>22</v>
+      </c>
+      <c r="C24" s="47">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="D24" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="46">
+        <v>23</v>
+      </c>
+      <c r="C25" s="47">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="46">
+        <v>24</v>
+      </c>
+      <c r="C26" s="47">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="46">
+        <v>25</v>
+      </c>
+      <c r="C27" s="47">
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="46">
+        <v>26</v>
+      </c>
+      <c r="C28" s="47">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="46">
+        <v>27</v>
+      </c>
+      <c r="C29" s="47">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="46">
+        <v>28</v>
+      </c>
+      <c r="C30" s="47">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="46">
+        <v>29</v>
+      </c>
+      <c r="C31" s="47">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="51">
+        <v>30</v>
+      </c>
+      <c r="C32" s="58">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Misc/הוצאות_והשקעות.xlsx
+++ b/Misc/הוצאות_והשקעות.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilon.eilstein\Desktop\Eilon\GitHub\My-Projects\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17EA1D-E7E8-43D0-B46C-D3C2F49C1D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="חישוב תשואה ורווח" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,27 @@
     <definedName name="הפקדות_במהלך_החודש">'הוצאות אמיתיות'!$F$3:$F$32</definedName>
     <definedName name="סכום_בסוף_החודש">'הוצאות אמיתיות'!$E$3:$E$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>אילון איילשטיין</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -268,11 +279,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="171" formatCode="&quot;₪&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;₪&quot;\ #,##0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -792,17 +803,6 @@
     <xf numFmtId="164" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
@@ -821,31 +821,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -854,15 +854,56 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="פלט" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -909,7 +950,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -952,64 +993,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3903.0230999999949</c:v>
+                  <c:v>3559.3686000000071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6155.9451780253148</c:v>
+                  <c:v>8749.0083246429058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3923.1126341087584</c:v>
+                  <c:v>10078.850759173391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2803.2289824028594</c:v>
+                  <c:v>15272.219620785985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7537.9932902381224</c:v>
+                  <c:v>16799.787539478748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10735.635466178846</c:v>
+                  <c:v>23600.984745680384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21105.565685037553</c:v>
+                  <c:v>19349.672014396376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26296.318169851482</c:v>
+                  <c:v>16432.13516937587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40576.04473223583</c:v>
+                  <c:v>18139.298439375176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42126.341031989024</c:v>
+                  <c:v>19331.090542742604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55898.903654235146</c:v>
+                  <c:v>23337.244066893945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52312.794211033877</c:v>
+                  <c:v>28957.05196763439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44161.459389693606</c:v>
+                  <c:v>40055.216958042882</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53320.647062675547</c:v>
+                  <c:v>59516.26568276863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51830.236299513708</c:v>
+                  <c:v>68502.771347703077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44776.421023363131</c:v>
+                  <c:v>83441.006095589968</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41664.036551558267</c:v>
+                  <c:v>87098.436022909853</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61068.803225008829</c:v>
+                  <c:v>107071.56978584686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84933.470526997131</c:v>
+                  <c:v>140039.89405867812</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88701.34325180485</c:v>
+                  <c:v>129381.54668310935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,64 +1121,64 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.505813653846144E-2</c:v>
+                  <c:v>6.8449396153846293E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6186643406645539E-2</c:v>
+                  <c:v>0.13670325507254541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.16199030803784E-2</c:v>
+                  <c:v>0.13261645735754463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.185487480003249E-2</c:v>
+                  <c:v>0.17354795023620437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5379932902381222E-2</c:v>
+                  <c:v>0.16799787539478747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5853888090882564E-2</c:v>
+                  <c:v>0.21072307808643201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17020617487933509</c:v>
+                  <c:v>0.15604574205158367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19335528066067267</c:v>
+                  <c:v>0.12082452330423434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27416246440699887</c:v>
+                  <c:v>0.12256282729307551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26328963144993139</c:v>
+                  <c:v>0.12081931589214127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32499362589671599</c:v>
+                  <c:v>0.13568165155170897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28430866419040152</c:v>
+                  <c:v>0.15737528243279561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22531356831476329</c:v>
+                  <c:v>0.20436335182674939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25634926472440167</c:v>
+                  <c:v>0.2861358927056184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23559198317960778</c:v>
+                  <c:v>0.31137623339865034</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19300181475587558</c:v>
+                  <c:v>0.35965950903271537</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17075424816212403</c:v>
+                  <c:v>0.35696080337258135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23855001259769074</c:v>
+                  <c:v>0.4182483194759643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31691593480222813</c:v>
+                  <c:v>0.52253691812939596</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31679051161358873</c:v>
+                  <c:v>0.46207695243967628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1236,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1214,7 +1254,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="710220590"/>
@@ -1277,7 +1317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
@@ -1299,7 +1338,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1909984593"/>
@@ -1329,7 +1368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -1382,7 +1420,13 @@
     <xdr:ext cx="11877675" cy="3152775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1687,12 +1731,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -1702,29 +1745,29 @@
       <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="12.59765625" style="29"/>
+    <col min="19" max="16384" width="12.58203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1741,7 +1784,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -1794,7 +1837,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1811,22 +1854,22 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="1"/>
       <c r="M4" s="30" t="s">
         <v>19</v>
@@ -1834,7 +1877,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -1871,12 +1914,12 @@
       </c>
       <c r="M5" s="28">
         <f ca="1">AVERAGE(L6:L25)</f>
-        <v>1.0381499999999999</v>
+        <v>1.04695</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <v>1</v>
@@ -1894,7 +1937,7 @@
       </c>
       <c r="F6" s="12">
         <f ca="1">(D6*L6 + 0.5*(1+L6)*E6) * (1-$L$2)</f>
-        <v>57204.030799999993</v>
+        <v>56745.824800000009</v>
       </c>
       <c r="G6" s="12">
         <f>D2+E6</f>
@@ -1902,29 +1945,29 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H15" ca="1" si="1">F6-G6</f>
-        <v>5204.0307999999932</v>
+        <v>4745.8248000000094</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" ref="I6:I15" ca="1" si="2">H6/G6</f>
-        <v>0.10007751538461525</v>
+        <v>9.1265861538461723E-2</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" ca="1" si="3">((F6*(1))-G6) - (H6*$N$2)</f>
-        <v>3903.0230999999949</v>
+        <v>3559.3686000000071</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" ref="K6:K15" ca="1" si="4">J6/G6</f>
-        <v>7.505813653846144E-2</v>
+        <v>6.8449396153846293E-2</v>
       </c>
       <c r="L6" s="33">
         <f ca="1">1+(RANDBETWEEN($P$2*1000*$F$2,1000*$R$2*$F$2)/1000)</f>
-        <v>1.1179999999999999</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="16">
         <v>2</v>
@@ -1934,7 +1977,7 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D15" ca="1" si="5">F6</f>
-        <v>57204.030799999993</v>
+        <v>56745.824800000009</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" si="0"/>
@@ -1942,7 +1985,7 @@
       </c>
       <c r="F7" s="18">
         <f t="shared" ref="F7:F25" ca="1" si="6">(D7*L7 + 0.5*(1+L7)*E7) * (1-$L$2)</f>
-        <v>72207.926904033753</v>
+        <v>75665.344432857208</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" ref="G7:G15" si="7">G6+E7</f>
@@ -1950,29 +1993,29 @@
       </c>
       <c r="H7" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8207.9269040337531</v>
+        <v>11665.344432857208</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12824885787552739</v>
+        <v>0.18227100676339386</v>
       </c>
       <c r="J7" s="20">
         <f ca="1">((F7*(1))-G7) - (H7*$N$2)</f>
-        <v>6155.9451780253148</v>
+        <v>8749.0083246429058</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6186643406645539E-2</v>
+        <v>0.13670325507254541</v>
       </c>
       <c r="L7" s="34">
         <f t="shared" ref="L7:L25" ca="1" si="8">1+(RANDBETWEEN($P$2*1000*$F$2,1000*$R$2*$F$2)/1000)</f>
-        <v>1.052</v>
+        <v>1.115</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <v>3</v>
@@ -1982,7 +2025,7 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>72207.926904033753</v>
+        <v>75665.344432857208</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
@@ -1990,7 +2033,7 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>81230.816845478344</v>
+        <v>89438.467678897854</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="7"/>
@@ -1998,29 +2041,29 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>5230.8168454783445</v>
+        <v>13438.467678897854</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8826537440504529E-2</v>
+        <v>0.17682194314339281</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J25" ca="1" si="9">((F8*(1))-G8) - (H8*$N$2)</f>
-        <v>3923.1126341087584</v>
+        <v>10078.850759173391</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>5.16199030803784E-2</v>
+        <v>0.13261645735754463</v>
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96599999999999997</v>
+        <v>1.026</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="16">
         <v>4</v>
@@ -2030,7 +2073,7 @@
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>81230.816845478344</v>
+        <v>89438.467678897854</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="0"/>
@@ -2038,7 +2081,7 @@
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>91737.638643203813</v>
+        <v>108362.95949438131</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="7"/>
@@ -2046,29 +2089,29 @@
       </c>
       <c r="H9" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3737.6386432038125</v>
+        <v>20362.959494381314</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2473166400043325E-2</v>
+        <v>0.23139726698160584</v>
       </c>
       <c r="J9" s="20">
         <f ca="1">((F9*(1))-G9) - (H9*$N$2)</f>
-        <v>2803.2289824028594</v>
+        <v>15272.219620785985</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>3.185487480003249E-2</v>
+        <v>0.17354795023620437</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98699999999999999</v>
+        <v>1.077</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <v>5</v>
@@ -2078,7 +2121,7 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>91737.638643203813</v>
+        <v>108362.95949438131</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
@@ -2086,7 +2129,7 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>110050.6577203175</v>
+        <v>122399.716719305</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="7"/>
@@ -2094,29 +2137,29 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>10050.657720317497</v>
+        <v>22399.716719304997</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10050657720317496</v>
+        <v>0.22399716719304996</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>7537.9932902381224</v>
+        <v>16799.787539478748</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5379932902381222E-2</v>
+        <v>0.16799787539478747</v>
       </c>
       <c r="L10" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.069</v>
+        <v>1.022</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="16">
         <v>6</v>
@@ -2126,7 +2169,7 @@
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>110050.6577203175</v>
+        <v>122399.716719305</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
@@ -2134,7 +2177,7 @@
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>126314.1806215718</v>
+        <v>143467.97966090718</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="7"/>
@@ -2142,29 +2185,29 @@
       </c>
       <c r="H11" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>14314.180621571795</v>
+        <v>31467.979660907178</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12780518412117675</v>
+        <v>0.28096410411524264</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>10735.635466178846</v>
+        <v>23600.984745680384</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5853888090882564E-2</v>
+        <v>0.21072307808643201</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0409999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <v>7</v>
@@ -2174,7 +2217,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>126314.1806215718</v>
+        <v>143467.97966090718</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
@@ -2182,7 +2225,7 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>152140.75424671674</v>
+        <v>149799.56268586183</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="7"/>
@@ -2190,29 +2233,29 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>28140.754246716737</v>
+        <v>25799.562685861834</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22694156650578012</v>
+        <v>0.20806098940211157</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>21105.565685037553</v>
+        <v>19349.672014396376</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17020617487933509</v>
+        <v>0.15604574205158367</v>
       </c>
       <c r="L12" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.109</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="16">
         <v>8</v>
@@ -2222,7 +2265,7 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>152140.75424671674</v>
+        <v>149799.56268586183</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="0"/>
@@ -2230,7 +2273,7 @@
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>171061.75755980198</v>
+        <v>157909.51355916783</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="7"/>
@@ -2238,29 +2281,29 @@
       </c>
       <c r="H13" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>35061.757559801976</v>
+        <v>21909.513559167826</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2578070408808969</v>
+        <v>0.16109936440564579</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>26296.318169851482</v>
+        <v>16432.13516937587</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19335528066067267</v>
+        <v>0.12082452330423434</v>
       </c>
       <c r="L13" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.048</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
         <v>9</v>
@@ -2270,7 +2313,7 @@
       </c>
       <c r="D14" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>171061.75755980198</v>
+        <v>157909.51355916783</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
@@ -2278,7 +2321,7 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>202101.39297631444</v>
+        <v>172185.73125250023</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="7"/>
@@ -2286,29 +2329,29 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>54101.392976314441</v>
+        <v>24185.731252500234</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36554995254266515</v>
+        <v>0.16341710305743401</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>40576.04473223583</v>
+        <v>18139.298439375176</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27416246440699887</v>
+        <v>0.12256282729307551</v>
       </c>
       <c r="L14" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1120000000000001</v>
+        <v>1.018</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="22">
         <v>10</v>
@@ -2318,7 +2361,7 @@
       </c>
       <c r="D15" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>202101.39297631444</v>
+        <v>172185.73125250023</v>
       </c>
       <c r="E15" s="24">
         <f t="shared" si="0"/>
@@ -2326,7 +2369,7 @@
       </c>
       <c r="F15" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>216168.4547093187</v>
+        <v>185774.78739032347</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="7"/>
@@ -2334,29 +2377,29 @@
       </c>
       <c r="H15" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>56168.454709318699</v>
+        <v>25774.787390323472</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35105284193324188</v>
+        <v>0.16109242118952169</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>42126.341031989024</v>
+        <v>19331.090542742604</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26328963144993139</v>
+        <v>0.12081931589214127</v>
       </c>
       <c r="L15" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.014</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
         <v>11</v>
@@ -2366,7 +2409,7 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" ref="D16:D19" ca="1" si="10">F15</f>
-        <v>216168.4547093187</v>
+        <v>185774.78739032347</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
@@ -2374,7 +2417,7 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>246531.87153898019</v>
+        <v>203116.32542252526</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G19" si="11">G15+E16</f>
@@ -2382,29 +2425,29 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16:H19" ca="1" si="12">F16-G16</f>
-        <v>74531.871538980195</v>
+        <v>31116.32542252526</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" ref="I16:I19" ca="1" si="13">H16/G16</f>
-        <v>0.43332483452895459</v>
+        <v>0.18090886873561199</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>55898.903654235146</v>
+        <v>23337.244066893945</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" ref="K16:K19" ca="1" si="14">J16/G16</f>
-        <v>0.32499362589671599</v>
+        <v>0.13568165155170897</v>
       </c>
       <c r="L16" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.087</v>
+        <v>1.032</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="22">
         <v>12</v>
@@ -2414,7 +2457,7 @@
       </c>
       <c r="D17" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>246531.87153898019</v>
+        <v>203116.32542252526</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
@@ -2422,7 +2465,7 @@
       </c>
       <c r="F17" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>253750.3922813785</v>
+        <v>222609.40262351252</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="11"/>
@@ -2430,29 +2473,29 @@
       </c>
       <c r="H17" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>69750.392281378503</v>
+        <v>38609.40262351252</v>
       </c>
       <c r="I17" s="25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37907821892053534</v>
+        <v>0.20983370991039413</v>
       </c>
       <c r="J17" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>52312.794211033877</v>
+        <v>28957.05196763439</v>
       </c>
       <c r="K17" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28430866419040152</v>
+        <v>0.15737528243279561</v>
       </c>
       <c r="L17" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98499999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <v>13</v>
@@ -2462,7 +2505,7 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ca="1" si="10"/>
-        <v>253750.3922813785</v>
+        <v>222609.40262351252</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
@@ -2470,7 +2513,7 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>254881.94585292481</v>
+        <v>249406.95594405718</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="11"/>
@@ -2478,29 +2521,29 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>58881.945852924808</v>
+        <v>53406.955944057176</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30041809108635104</v>
+        <v>0.27248446910233254</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>44161.459389693606</v>
+        <v>40055.216958042882</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22531356831476329</v>
+        <v>0.20436335182674939</v>
       </c>
       <c r="L18" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96199999999999997</v>
+        <v>1.069</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="22">
         <v>14</v>
@@ -2510,7 +2553,7 @@
       </c>
       <c r="D19" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>254881.94585292481</v>
+        <v>249406.95594405718</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" si="0"/>
@@ -2518,7 +2561,7 @@
       </c>
       <c r="F19" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>279094.1960835674</v>
+        <v>287355.02091035817</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="11"/>
@@ -2526,29 +2569,29 @@
       </c>
       <c r="H19" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>71094.196083567396</v>
+        <v>79355.020910358173</v>
       </c>
       <c r="I19" s="25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.34179901963253556</v>
+        <v>0.38151452360749122</v>
       </c>
       <c r="J19" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>53320.647062675547</v>
+        <v>59516.26568276863</v>
       </c>
       <c r="K19" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25634926472440167</v>
+        <v>0.2861358927056184</v>
       </c>
       <c r="L19" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0509999999999999</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="10">
         <v>15</v>
@@ -2558,7 +2601,7 @@
       </c>
       <c r="D20" s="12">
         <f t="shared" ref="D20:D25" ca="1" si="15">F19</f>
-        <v>279094.1960835674</v>
+        <v>287355.02091035817</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="0"/>
@@ -2566,7 +2609,7 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>289106.98173268494</v>
+        <v>311337.0284636041</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" ref="G20:G25" si="16">G19+E20</f>
@@ -2574,29 +2617,29 @@
       </c>
       <c r="H20" s="12">
         <f t="shared" ref="H20:H25" ca="1" si="17">F20-G20</f>
-        <v>69106.981732684944</v>
+        <v>91337.028463604103</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" ref="I20:I25" ca="1" si="18">H20/G20</f>
-        <v>0.314122644239477</v>
+        <v>0.41516831119820047</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>51830.236299513708</v>
+        <v>68502.771347703077</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" ref="K20:K25" ca="1" si="19">J20/G20</f>
-        <v>0.23559198317960778</v>
+        <v>0.31137623339865034</v>
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.997</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="22">
         <v>16</v>
@@ -2606,7 +2649,7 @@
       </c>
       <c r="D21" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>289106.98173268494</v>
+        <v>311337.0284636041</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
@@ -2614,7 +2657,7 @@
       </c>
       <c r="F21" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>291701.89469781751</v>
+        <v>343254.67479411996</v>
       </c>
       <c r="G21" s="24">
         <f t="shared" si="16"/>
@@ -2622,29 +2665,29 @@
       </c>
       <c r="H21" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>59701.894697817508</v>
+        <v>111254.67479411996</v>
       </c>
       <c r="I21" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.25733575300783407</v>
+        <v>0.47954601204362052</v>
       </c>
       <c r="J21" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>44776.421023363131</v>
+        <v>83441.006095589968</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19300181475587558</v>
+        <v>0.35965950903271537</v>
       </c>
       <c r="L21" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97199999999999998</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="10">
         <v>17</v>
@@ -2654,7 +2697,7 @@
       </c>
       <c r="D22" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>291701.89469781751</v>
+        <v>343254.67479411996</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
@@ -2662,7 +2705,7 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>299552.04873541102</v>
+        <v>360131.24803054647</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="16"/>
@@ -2670,29 +2713,29 @@
       </c>
       <c r="H22" s="12">
         <f t="shared" ca="1" si="17"/>
-        <v>55552.048735411023</v>
+        <v>116131.24803054647</v>
       </c>
       <c r="I22" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22767233088283206</v>
+        <v>0.47594773783010846</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>41664.036551558267</v>
+        <v>87098.436022909853</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>0.17075424816212403</v>
+        <v>0.35696080337258135</v>
       </c>
       <c r="L22" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99</v>
+        <v>1.018</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="22">
         <v>18</v>
@@ -2702,7 +2745,7 @@
       </c>
       <c r="D23" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>299552.04873541102</v>
+        <v>360131.24803054647</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
@@ -2710,7 +2753,7 @@
       </c>
       <c r="F23" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>337425.07096667844</v>
+        <v>398762.09304779582</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="16"/>
@@ -2718,29 +2761,29 @@
       </c>
       <c r="H23" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>81425.070966678439</v>
+        <v>142762.09304779582</v>
       </c>
       <c r="I23" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.31806668346358763</v>
+        <v>0.5576644259679524</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>61068.803225008829</v>
+        <v>107071.56978584686</v>
       </c>
       <c r="K23" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.23855001259769074</v>
+        <v>0.4182483194759643</v>
       </c>
       <c r="L23" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.089</v>
+        <v>1.077</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="10">
         <v>19</v>
@@ -2750,7 +2793,7 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>337425.07096667844</v>
+        <v>398762.09304779582</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="0"/>
@@ -2758,7 +2801,7 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>381244.62736932951</v>
+        <v>454719.85874490417</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="16"/>
@@ -2766,29 +2809,29 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="17"/>
-        <v>113244.62736932951</v>
+        <v>186719.85874490417</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42255457973630411</v>
+        <v>0.69671589083919461</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>84933.470526997131</v>
+        <v>140039.89405867812</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>0.31691593480222813</v>
+        <v>0.52253691812939596</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.097</v>
+        <v>1.113</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="22">
         <v>20</v>
@@ -2798,7 +2841,7 @@
       </c>
       <c r="D25" s="24">
         <f t="shared" ca="1" si="15"/>
-        <v>381244.62736932951</v>
+        <v>454719.85874490417</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
@@ -2806,7 +2849,7 @@
       </c>
       <c r="F25" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>398268.45766907313</v>
+        <v>452508.72891081247</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="16"/>
@@ -2814,29 +2857,29 @@
       </c>
       <c r="H25" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>118268.45766907313</v>
+        <v>172508.72891081247</v>
       </c>
       <c r="I25" s="25">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42238734881811835</v>
+        <v>0.61610260325290167</v>
       </c>
       <c r="J25" s="26">
         <f t="shared" ca="1" si="9"/>
-        <v>88701.34325180485</v>
+        <v>129381.54668310935</v>
       </c>
       <c r="K25" s="27">
         <f t="shared" ca="1" si="19"/>
-        <v>0.31679051161358873</v>
+        <v>0.46207695243967628</v>
       </c>
       <c r="L25" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0169999999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2853,7 +2896,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2870,7 +2913,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2887,7 +2930,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2904,7 +2947,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2921,7 +2964,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2938,7 +2981,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2955,7 +2998,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2972,7 +3015,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2989,7 +3032,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3008,7 +3051,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3025,7 +3068,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3042,7 +3085,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3059,7 +3102,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3076,7 +3119,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3093,7 +3136,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3110,7 +3153,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3127,7 +3170,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3144,7 +3187,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3161,7 +3204,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3178,7 +3221,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3195,7 +3238,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3212,7 +3255,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3229,7 +3272,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3246,7 +3289,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3263,7 +3306,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3280,7 +3323,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3297,7 +3340,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3314,7 +3357,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3331,7 +3374,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3348,7 +3391,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3365,7 +3408,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3382,7 +3425,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3399,7 +3442,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3416,7 +3459,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3433,7 +3476,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3450,7 +3493,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3467,7 +3510,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3484,7 +3527,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3501,7 +3544,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3518,7 +3561,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3535,7 +3578,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3552,7 +3595,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3569,7 +3612,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3586,7 +3629,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3603,7 +3646,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3620,7 +3663,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3637,7 +3680,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3654,7 +3697,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3671,7 +3714,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3688,7 +3731,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3705,7 +3748,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3722,7 +3765,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3739,7 +3782,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3756,7 +3799,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3773,7 +3816,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3790,7 +3833,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3807,7 +3850,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3824,7 +3867,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3841,7 +3884,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3858,7 +3901,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3875,7 +3918,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3892,7 +3935,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3909,7 +3952,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3926,7 +3969,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3943,7 +3986,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3960,7 +4003,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3977,7 +4020,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3994,7 +4037,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4011,7 +4054,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4028,7 +4071,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4045,7 +4088,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4062,7 +4105,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4079,7 +4122,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4096,7 +4139,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4151,662 +4194,686 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="41"/>
-    <col min="2" max="2" width="8.296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="41" customWidth="1"/>
-    <col min="4" max="6" width="21" style="50" customWidth="1"/>
-    <col min="7" max="9" width="16.8984375" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="41"/>
+    <col min="1" max="1" width="8.83203125" style="36"/>
+    <col min="2" max="2" width="8.33203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="36" customWidth="1"/>
+    <col min="4" max="6" width="21" style="45" customWidth="1"/>
+    <col min="7" max="9" width="16.9140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="40"/>
+      <c r="K2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="46">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="42">
         <f>DATE((2021), B3, 1)</f>
         <v>44197</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="43">
         <v>0</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="43">
         <v>0</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="44">
         <v>0</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="K3" s="50">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="K3" s="45">
         <f>SUM(הפקדות_במהלך_החודש)</f>
         <v>31000</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="45">
         <f>MAX(סכום_בסוף_החודש) - K3</f>
-        <v>-9491</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="42">
         <f t="shared" ref="C4:C32" si="0">DATE((2021), B4, 1)</f>
         <v>44228</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="43">
         <v>0</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="43">
         <v>0</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="44">
         <v>1000</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="46">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="43">
         <v>0</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="43">
         <v>1000</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="44">
         <v>0</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="46">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="42">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="43">
         <f>E5</f>
         <v>1000</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="43">
         <v>1000</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="44">
         <v>10000</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="46">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="42">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="43">
         <f>E6</f>
         <v>1000</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="43">
         <v>11198</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="44">
         <v>10000</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="46">
+      <c r="G7" s="45">
+        <f>(E7-F6)-D7</f>
+        <v>198</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
         <v>6</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="42">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="43">
         <f>E7</f>
         <v>11198</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="43">
         <v>21509</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="44">
         <v>10000</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="45">
         <f>(E8-F7)-D8</f>
         <v>311</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="51">
         <f>G8/D8</f>
         <v>2.7772816574388282E-2</v>
       </c>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="46">
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="41">
         <v>7</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="42">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="43">
         <f>E8</f>
         <v>21509</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="E9" s="43">
+        <v>31220</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <f>(E9-F8)-D9</f>
+        <v>-289</v>
+      </c>
+      <c r="H9" s="51">
+        <f>G9/D9</f>
+        <v>-1.3436235994234972E-2</v>
+      </c>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
         <v>8</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="42">
         <f t="shared" si="0"/>
         <v>44409</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="43">
         <f t="shared" ref="D10:D32" si="1">E9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="46">
+        <v>31220</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="41">
         <v>9</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="42">
         <f t="shared" si="0"/>
         <v>44440</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="46">
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="42">
         <f t="shared" si="0"/>
         <v>44470</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="46">
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
         <v>11</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="42">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="46">
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="41">
         <v>12</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="42">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="46">
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
         <v>13</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="42">
         <f t="shared" si="0"/>
         <v>44562</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="46">
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="41">
         <v>14</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="42">
         <f t="shared" si="0"/>
         <v>44593</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="46">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
         <v>15</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="42">
         <f t="shared" si="0"/>
         <v>44621</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="46">
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="41">
         <v>16</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="42">
         <f t="shared" si="0"/>
         <v>44652</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="46">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
         <v>17</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="42">
         <f t="shared" si="0"/>
         <v>44682</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="46">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="41">
         <v>18</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="42">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="46">
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="41">
         <v>19</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="42">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="46">
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="41">
         <v>20</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="42">
         <f t="shared" si="0"/>
         <v>44774</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="46">
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="41">
         <v>21</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="42">
         <f t="shared" si="0"/>
         <v>44805</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="46">
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="41">
         <v>22</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="42">
         <f t="shared" si="0"/>
         <v>44835</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="46">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="41">
         <v>23</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="42">
         <f t="shared" si="0"/>
         <v>44866</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="46">
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="41">
         <v>24</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="42">
         <f t="shared" si="0"/>
         <v>44896</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="46">
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="41">
         <v>25</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="42">
         <f t="shared" si="0"/>
         <v>44927</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="46">
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="41">
         <v>26</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="42">
         <f t="shared" si="0"/>
         <v>44958</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="46">
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="41">
         <v>27</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="42">
         <f t="shared" si="0"/>
         <v>44986</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="46">
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="41">
         <v>28</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="42">
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="46">
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="41">
         <v>29</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="42">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-    </row>
-    <row r="32" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="51">
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="46">
         <v>30</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="53">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="54" t="s">
+      <c r="D32" s="47">
+        <v>0</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
